--- a/Curriculum_powerBI/data.xlsx
+++ b/Curriculum_powerBI/data.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana\Google Drive\CURSO DATA SCIENCE\GITHUB\Data Analysis\Curriculum_powerBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana\Google Drive\CURSO DATA SCIENCE\Github\Data Analysis\Curriculum_powerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF400E4F-2C6D-44B9-9EE9-F7A435355CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA19FF2-CA95-4620-982B-38DA88BD821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{93ADF6F2-AC08-43FE-A841-AE25D132FA8D}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{B97437BD-7417-45F9-B287-770D6BA39F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
-    <sheet name="Social" sheetId="2" r:id="rId2"/>
+    <sheet name="Languages" sheetId="3" r:id="rId2"/>
+    <sheet name="Education" sheetId="2" r:id="rId3"/>
+    <sheet name="JOBS" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Skills!$A$1:$H$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,87 +40,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Power BI</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
-    <t>MS. Office</t>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
   </si>
   <si>
     <t>SAP</t>
   </si>
   <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Universidad del Bio Bio</t>
+  </si>
+  <si>
+    <t>BYU-Pathway Worldwide</t>
+  </si>
+  <si>
+    <t>BYU-Idaho</t>
+  </si>
+  <si>
+    <t>Applied Technology</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
     <t>Problem Solving</t>
   </si>
   <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ijarpa/</t>
-  </si>
-  <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ijarpa/</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>https://github.com/ijarpa</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ivan.andres.jarpa/</t>
+    <t>Digital Technology</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>JOB_EDUCATION</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Treasury Analyst</t>
+  </si>
+  <si>
+    <t>Reporting</t>
   </si>
   <si>
     <t>Controlling</t>
   </si>
   <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Team work</t>
-  </si>
-  <si>
-    <t>Web dev.</t>
+    <t>Finance Analysis</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Beneo Orafti Chile</t>
+  </si>
+  <si>
+    <t>Copelec Ltda.</t>
+  </si>
+  <si>
+    <t>Futurum</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>start_Date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>kind_of_skill</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Creativity</t>
+  </si>
+  <si>
+    <t>Adaptability</t>
+  </si>
+  <si>
+    <t>Organization</t>
   </si>
 </sst>
 </file>
@@ -151,8 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,210 +529,718 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8A97F-7C4A-49D2-8EB6-8CCA99F669C4}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B0822-0127-4BA7-A441-8D5194BB1572}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>87</v>
+      </c>
+      <c r="F19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>85</v>
+      </c>
+      <c r="G22">
+        <v>93</v>
+      </c>
+      <c r="H22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>86</v>
+      </c>
+      <c r="E23">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>94</v>
+      </c>
+      <c r="F24">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>89</v>
+      </c>
+      <c r="H24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>94</v>
+      </c>
+      <c r="F26">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>94</v>
+      </c>
+      <c r="H26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>89</v>
+      </c>
+      <c r="D27">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>95</v>
+      </c>
+      <c r="H27">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H25" xr:uid="{213B0822-0127-4BA7-A441-8D5194BB1572}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+      <sortCondition ref="B1:B25"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F46C4-83C0-45AB-89D5-AE55D6B535A5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>72</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>92</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF09E6C6-5C76-46A9-9C62-8EA5173B2D28}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9430E4D-BC6F-4722-9AE0-B78215C29AF0}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2014</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D8DCF-669F-433B-9185-B0F97B34BBBA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43282</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44621</v>
       </c>
     </row>
   </sheetData>
